--- a/medicine/Psychotrope/Blanche_de_Bruxelles/Blanche_de_Bruxelles.xlsx
+++ b/medicine/Psychotrope/Blanche_de_Bruxelles/Blanche_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blanche de Bruxelles est une bière brassée par la brasserie Lefebvre à Quenast dans la commune belge de Rebecq située en Région wallonne dans la province du Brabant wallon.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1989, une bière blanche nommée la Student est brassée par la brasserie Lefebvre. Elle est rapidement renommée Blanche de Bruxelles.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blanche de Bruxelles une bière de fermentation haute, de type blanche présentant une robe naturellement opalescente. Elle est composée de 40 % de froment, d'épices comme la coriandre et d'écorces d'oranges amères. 
 Elle est commercialisée en bouteilles de 33 et 75 cl ainsi qu'en fûts de 15 et 30 litres.
-À partir de la Blanche de Bruxelles, une bière à la pomme (la Newton) est créée suivie d'une Blanche de Bruxelles rosée[1] qui fait partie des 185 bières admises par les Belgian Family Brewers[2].
+À partir de la Blanche de Bruxelles, une bière à la pomme (la Newton) est créée suivie d'une Blanche de Bruxelles rosée qui fait partie des 185 bières admises par les Belgian Family Brewers.
 L'étiquette représente Manneken-Pis, symbole de la ville de Bruxelles.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blanche de Bruxelles, une bière blanche titrant 4,5 % en volume d'alcool
 Blanche de Bruxelles rosée, une bière blanche à l'arôme de fruits rouges titrant 4,5 % en volume d'alcool
